--- a/漢字（かんじ）/k.xlsx
+++ b/漢字（かんじ）/k.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA94535-9012-443A-B416-911AFA8D304C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931DEA9C-AD4A-4570-9DC1-DED4A780E03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="0" windowWidth="13416" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="か" sheetId="1" r:id="rId1"/>
@@ -1221,14 +1221,6 @@
   <si>
     <t>定価｜ていか
 価格｜かかく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計画｜けいか
-設計｜せっけい
-合計｜ごうけい
-時計｜とけい
-計算｜けいさん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2586,6 +2578,14 @@
 強化｜きょうか
 進化｜しんか
 少子化｜しょうしか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計画｜けいかく
+設計｜せっけい
+合計｜ごうけい
+時計｜とけい
+計算｜けいさん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2993,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3008,22 +3008,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>82</v>
@@ -3054,7 +3054,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>82</v>
@@ -3071,16 +3071,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3088,10 +3088,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -3100,7 +3100,7 @@
         <v>165</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="70.8" x14ac:dyDescent="0.45">
@@ -3120,7 +3120,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3131,7 +3131,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -3140,7 +3140,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3177,10 +3177,10 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3234,13 +3234,13 @@
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3251,7 +3251,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -3260,7 +3260,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3271,16 +3271,16 @@
         <v>150</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3288,10 +3288,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>86</v>
@@ -3300,7 +3300,7 @@
         <v>87</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3320,7 +3320,7 @@
         <v>237</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3360,7 +3360,7 @@
         <v>89</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3371,7 +3371,7 @@
         <v>241</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>86</v>
@@ -3388,10 +3388,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>86</v>
@@ -3400,7 +3400,7 @@
         <v>119</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3408,10 +3408,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
@@ -3428,10 +3428,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>458</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>459</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>86</v>
@@ -3448,10 +3448,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>86</v>
@@ -3477,10 +3477,10 @@
         <v>86</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -3491,7 +3491,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>86</v>
@@ -3500,7 +3500,7 @@
         <v>92</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3511,7 +3511,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>86</v>
@@ -3551,7 +3551,7 @@
         <v>103</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>86</v>
@@ -3571,7 +3571,7 @@
         <v>63</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>94</v>
@@ -3580,7 +3580,7 @@
         <v>95</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -3589,10 +3589,10 @@
         <v>94</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3663,7 +3663,7 @@
         <v>205</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>268</v>
@@ -3700,10 +3700,10 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>273</v>
@@ -3717,19 +3717,19 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -3737,19 +3737,19 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3757,19 +3757,19 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -3777,16 +3777,16 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="E40" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3794,19 +3794,19 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="E41" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3814,10 +3814,10 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>225</v>
@@ -3826,7 +3826,7 @@
         <v>226</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -3834,19 +3834,19 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>216</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -3862,10 +3862,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -3896,22 +3896,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3922,7 +3922,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>60</v>
@@ -3931,7 +3931,7 @@
         <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3942,7 +3942,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>60</v>
@@ -3951,7 +3951,7 @@
         <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3962,7 +3962,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>60</v>
@@ -3971,7 +3971,7 @@
         <v>233</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -3982,7 +3982,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>60</v>
@@ -3991,7 +3991,7 @@
         <v>261</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4008,10 +4008,10 @@
         <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -4042,7 +4042,7 @@
         <v>164</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>69</v>
@@ -4071,7 +4071,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -4102,7 +4102,7 @@
         <v>211</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>194</v>
@@ -4119,16 +4119,16 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4136,10 +4136,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4147,10 +4147,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4158,10 +4158,10 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4202,10 +4202,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -4213,10 +4213,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4224,10 +4224,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -4235,43 +4235,43 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4326,7 +4326,7 @@
         <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -4359,7 +4359,7 @@
         <v>172</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4367,10 +4367,10 @@
         <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -4378,10 +4378,10 @@
         <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4389,10 +4389,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4414,7 +4414,7 @@
         <v>115</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -4433,7 +4433,7 @@
         <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4441,10 +4441,10 @@
         <v>114</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4455,7 +4455,7 @@
         <v>118</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4466,7 +4466,7 @@
         <v>139</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4485,10 +4485,10 @@
         <v>114</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -4496,10 +4496,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -4507,10 +4507,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4536,13 +4536,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4553,7 +4553,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -4561,10 +4561,10 @@
         <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -4575,18 +4575,18 @@
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -4597,7 +4597,7 @@
         <v>229</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4605,10 +4605,10 @@
         <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -4637,54 +4637,54 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -4697,8 +4697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256BA73C-D188-4336-B179-E3E92E107E20}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4709,22 +4709,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -4735,7 +4735,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>275</v>
+        <v>518</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>163</v>
@@ -4744,7 +4744,7 @@
         <v>162</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="73.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -4761,10 +4761,10 @@
         <v>163</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4781,10 +4781,10 @@
         <v>163</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.45">
@@ -4801,10 +4801,10 @@
         <v>163</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -4815,16 +4815,16 @@
         <v>77</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4835,7 +4835,7 @@
         <v>153</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -4843,10 +4843,10 @@
         <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4865,10 +4865,10 @@
         <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4879,7 +4879,7 @@
         <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -4931,10 +4931,10 @@
         <v>65</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4942,10 +4942,10 @@
         <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -4989,7 +4989,7 @@
         <v>107</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -5022,7 +5022,7 @@
         <v>110</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5044,7 +5044,7 @@
         <v>249</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5052,10 +5052,10 @@
         <v>96</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="32.4" x14ac:dyDescent="0.45">
@@ -5063,10 +5063,10 @@
         <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -5091,22 +5091,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5117,7 +5117,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>180</v>
@@ -5137,7 +5137,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>181</v>
@@ -5154,10 +5154,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>181</v>
@@ -5166,7 +5166,7 @@
         <v>184</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5186,7 +5186,7 @@
         <v>262</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5197,7 +5197,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5242,7 +5242,7 @@
         <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5261,10 +5261,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5283,10 +5283,10 @@
         <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5294,10 +5294,10 @@
         <v>38</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5305,10 +5305,10 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5316,10 +5316,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5341,7 +5341,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5352,7 +5352,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -5363,7 +5363,7 @@
         <v>178</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5385,7 +5385,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5440,7 +5440,7 @@
         <v>104</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5473,7 +5473,7 @@
         <v>105</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5481,10 +5481,10 @@
         <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5495,7 +5495,7 @@
         <v>178</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5517,7 +5517,7 @@
         <v>106</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -5539,7 +5539,7 @@
         <v>123</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5547,10 +5547,10 @@
         <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5572,7 +5572,7 @@
         <v>206</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -5583,7 +5583,7 @@
         <v>207</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5613,10 +5613,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5624,10 +5624,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5635,10 +5635,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5646,10 +5646,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5660,7 +5660,7 @@
         <v>111</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5668,10 +5668,10 @@
         <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5679,10 +5679,10 @@
         <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5690,10 +5690,10 @@
         <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5701,18 +5701,18 @@
         <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/k.xlsx
+++ b/漢字（かんじ）/k.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931DEA9C-AD4A-4570-9DC1-DED4A780E03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA55ACA-468F-4850-902A-295A3AF8174A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="か" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="525">
   <si>
     <t>歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2416,13 +2416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>見学｜けんがく
-意見｜いけん
-見当｜けんとう
-見解｜けんかい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2586,6 +2579,39 @@
 合計｜ごうけい
 時計｜とけい
 計算｜けいさん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片付｜かたづけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喫煙室｜きつえんしつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見学｜けんがく
+意見｜いけん
+見当｜けんとう
+見解｜けんかい
+見物｜けんぶつ
+見物人｜けんぶつにん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2991,10 +3017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3054,7 +3080,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>82</v>
@@ -3120,7 +3146,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3280,7 +3306,7 @@
         <v>480</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3500,7 +3526,7 @@
         <v>92</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3551,7 +3577,7 @@
         <v>103</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>86</v>
@@ -3574,25 +3600,25 @@
         <v>283</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>94</v>
+        <v>519</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>95</v>
+        <v>518</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="C30" s="3"/>
       <c r="E30" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>513</v>
+        <v>95</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>512</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3606,16 +3632,16 @@
         <v>167</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>191</v>
+        <v>512</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -3626,16 +3652,16 @@
         <v>202</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -3646,13 +3672,13 @@
         <v>204</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3666,16 +3692,16 @@
         <v>448</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -3686,13 +3712,13 @@
         <v>253</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3706,10 +3732,13 @@
         <v>415</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3723,16 +3752,13 @@
         <v>481</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3746,10 +3772,10 @@
         <v>305</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3766,13 +3792,13 @@
         <v>305</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+        <v>307</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -3783,10 +3809,13 @@
         <v>369</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3800,16 +3829,13 @@
         <v>371</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -3820,33 +3846,33 @@
         <v>462</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>225</v>
+        <v>378</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+        <v>377</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>382</v>
+        <v>226</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -3854,17 +3880,28 @@
         <v>216</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>215</v>
+        <v>383</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>217</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E46" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>410</v>
       </c>
     </row>
@@ -3881,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161A7524-DC47-4C3A-A5BA-55AE7C431FCB}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D3:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3991,7 +4028,7 @@
         <v>261</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4141,6 +4178,15 @@
       <c r="C13" s="3" t="s">
         <v>447</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
@@ -4235,10 +4281,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -4564,7 +4610,7 @@
         <v>287</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -4697,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256BA73C-D188-4336-B179-E3E92E107E20}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4735,7 +4781,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>163</v>
@@ -4815,7 +4861,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>163</v>
@@ -4824,7 +4870,7 @@
         <v>355</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4981,7 +5027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
@@ -4989,7 +5035,7 @@
         <v>107</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -5044,7 +5090,7 @@
         <v>249</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5197,7 +5243,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5385,7 +5431,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5539,7 +5585,7 @@
         <v>123</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5646,10 +5692,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5701,18 +5747,18 @@
         <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/k.xlsx
+++ b/漢字（かんじ）/k.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA55ACA-468F-4850-902A-295A3AF8174A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECA0EA2-F736-405F-9BAF-5DFE7D13C1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="か" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="535">
   <si>
     <t>歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,10 +664,6 @@
   </si>
   <si>
     <t>共</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共鳴｜きょうめい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -749,11 +745,6 @@
   </si>
   <si>
     <t>給</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貨幣供給｜かへいきょうきゅう
-給与｜きゅうよ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1344,13 +1335,6 @@
   </si>
   <si>
     <t>急</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>救急｜きゅうきゅう
-緊急｜きんきゅう
-特急｜とっきゅう
-特急列車｜とっきゅうれっしゃ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1778,14 +1762,6 @@
   </si>
   <si>
     <t>引換｜ひきかえ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連休｜れんきゅう
-休暇｜きゅうか
-休会｜きゅうかい
-休憩｜きゅうけい
-休息｜きゅうそく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2441,17 +2417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正解｜せいかい
-解除｜かいじょ
-分解｜ぶんかい
-了解｜りょうかい
-理解｜りかい
-誤解｜ごかい
-解釈｜かいしゃく
-解放｜かいほう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学校｜がっこう
 登校｜とうこう
 下校｜げこう</t>
@@ -2544,15 +2509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通勤｜つうきん
-出勤｜しゅっきん
-勤労｜きんろう
-勤勉｜きんべん
-勤務｜きんむ
-在宅勤務｜ざいたくきんむ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>欠点｜けってん
 欠損｜けっそん
 不可欠｜ふかけつ
@@ -2612,6 +2568,101 @@
 見解｜けんかい
 見物｜けんぶつ
 見物人｜けんぶつにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学級｜がっきゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>か</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許可｜きょか
+許可証｜きょかしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許可｜きょか
+許可証｜きょかしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共鳴｜きょうめい
+公共｜こうきょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正解｜せいかい
+誤解｜ごかい
+解除｜かいじょ
+分解｜ぶんかい
+了解｜りょうかい
+理解｜りかい
+誤解｜ごかい
+解釈｜かいしゃく
+解放｜かいほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謙遜｜けんそん
+謙虚｜けんきょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通勤｜つうきん
+欠勤｜けっきん
+出勤｜しゅっきん
+勤労｜きんろう
+勤勉｜きんべん
+勤務｜きんむ
+在宅勤務｜ざいたくきんむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貨幣供給｜かへいきょうきゅう
+給与｜きゅうよ
+月給｜げっきゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連休｜れんきゅう
+休暇｜きゅうか
+休会｜きゅうかい
+休憩｜きゅうけい
+休息｜きゅうそく
+休学｜きゅうがく
+休暇｜きゅうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>救急｜きゅうきゅう
+緊急｜きんきゅう
+特急｜とっきゅう
+特急列車｜とっきゅうれっしゃ
+急速｜きゅうそく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>競</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>競技｜きょうぎ
+競技場｜きょうぎじょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3019,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3034,22 +3085,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -3060,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>82</v>
@@ -3080,7 +3131,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>82</v>
@@ -3097,16 +3148,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3114,19 +3165,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="70.8" x14ac:dyDescent="0.45">
@@ -3146,7 +3197,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3157,7 +3208,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -3166,7 +3217,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3186,7 +3237,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3203,10 +3254,10 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3217,7 +3268,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -3226,7 +3277,7 @@
         <v>140</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3243,10 +3294,10 @@
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3260,13 +3311,13 @@
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3277,7 +3328,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -3286,7 +3337,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3297,16 +3348,16 @@
         <v>150</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3314,10 +3365,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>86</v>
@@ -3326,7 +3377,7 @@
         <v>87</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3334,19 +3385,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3357,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>86</v>
@@ -3374,10 +3425,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>86</v>
@@ -3386,7 +3437,7 @@
         <v>89</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3394,10 +3445,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>86</v>
@@ -3414,10 +3465,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>86</v>
@@ -3426,7 +3477,7 @@
         <v>119</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3434,10 +3485,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
@@ -3454,70 +3505,70 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>467</v>
+        <v>521</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>464</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>463</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="144" x14ac:dyDescent="0.45">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="162" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>316</v>
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>86</v>
@@ -3526,91 +3577,99 @@
         <v>92</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>515</v>
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.45">
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>94</v>
       </c>
@@ -3618,27 +3677,19 @@
         <v>95</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>167</v>
-      </c>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C31" s="3"/>
       <c r="E31" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3646,19 +3697,19 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -3666,59 +3717,59 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>448</v>
+        <v>202</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>253</v>
+        <v>203</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3726,76 +3777,76 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>415</v>
+        <v>250</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="108" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>481</v>
+        <v>411</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="108" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>477</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>421</v>
+        <v>290</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3803,56 +3854,56 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>369</v>
+        <v>310</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>462</v>
+        <v>367</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3860,49 +3911,58 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E44" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E46" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3916,10 +3976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161A7524-DC47-4C3A-A5BA-55AE7C431FCB}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D3:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3933,22 +3993,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3959,7 +4019,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>60</v>
@@ -3968,7 +4028,7 @@
         <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3979,7 +4039,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>60</v>
@@ -3988,7 +4048,7 @@
         <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3999,16 +4059,16 @@
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -4019,16 +4079,16 @@
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4045,10 +4105,10 @@
         <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -4076,10 +4136,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>69</v>
@@ -4099,7 +4159,7 @@
         <v>137</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>69</v>
@@ -4108,7 +4168,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -4116,10 +4176,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>69</v>
@@ -4136,19 +4196,19 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4156,16 +4216,16 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4173,19 +4233,19 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4193,10 +4253,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4204,10 +4264,10 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4215,10 +4275,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -4226,10 +4286,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4237,10 +4297,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4248,10 +4308,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -4259,10 +4319,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4270,10 +4330,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -4281,76 +4341,76 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>224</v>
+        <v>523</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>533</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -4358,10 +4418,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4369,10 +4429,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>364</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -4380,54 +4440,54 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>280</v>
+        <v>154</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>404</v>
+        <v>171</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4435,128 +4495,161 @@
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>406</v>
+        <v>278</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>434</v>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="72" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="90" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="126" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>298</v>
+        <v>118</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>407</v>
+        <v>172</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -4570,7 +4663,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4582,13 +4675,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4599,7 +4692,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -4607,10 +4700,10 @@
         <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -4621,29 +4714,29 @@
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4651,10 +4744,10 @@
         <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -4675,62 +4768,62 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -4741,10 +4834,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256BA73C-D188-4336-B179-E3E92E107E20}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4755,22 +4848,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="E1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -4781,16 +4874,16 @@
         <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="73.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -4801,16 +4894,16 @@
         <v>138</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4824,13 +4917,13 @@
         <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.45">
@@ -4844,13 +4937,13 @@
         <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -4861,16 +4954,16 @@
         <v>77</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4881,7 +4974,7 @@
         <v>153</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -4889,10 +4982,10 @@
         <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4903,7 +4996,7 @@
         <v>78</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -4911,10 +5004,10 @@
         <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4925,7 +5018,7 @@
         <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -4966,10 +5059,10 @@
         <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -4977,10 +5070,10 @@
         <v>65</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4988,10 +5081,10 @@
         <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5010,10 +5103,10 @@
         <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5035,7 +5128,7 @@
         <v>107</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -5046,7 +5139,7 @@
         <v>108</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -5057,7 +5150,7 @@
         <v>109</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5068,7 +5161,7 @@
         <v>110</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5087,10 +5180,10 @@
         <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5098,10 +5191,10 @@
         <v>96</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="32.4" x14ac:dyDescent="0.45">
@@ -5109,10 +5202,21 @@
         <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -5125,8 +5229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A9C990-1BC4-48DB-B333-376637D02229}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5137,22 +5241,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="E1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5163,10 +5267,10 @@
         <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>147</v>
@@ -5183,16 +5287,16 @@
         <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="88.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -5200,19 +5304,19 @@
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5226,13 +5330,13 @@
         <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5243,7 +5347,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5257,10 +5361,10 @@
         <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5274,10 +5378,10 @@
         <v>131</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5288,7 +5392,7 @@
         <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5299,7 +5403,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5307,10 +5411,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5318,10 +5422,10 @@
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.45">
@@ -5329,10 +5433,10 @@
         <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5340,10 +5444,10 @@
         <v>38</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5351,10 +5455,10 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5362,21 +5466,21 @@
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="144" x14ac:dyDescent="0.45">
@@ -5387,7 +5491,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5398,7 +5502,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -5406,10 +5510,10 @@
         <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5431,7 +5535,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5439,10 +5543,10 @@
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5475,7 +5579,7 @@
         <v>68</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -5486,7 +5590,7 @@
         <v>104</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5508,7 +5612,7 @@
         <v>149</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5519,7 +5623,7 @@
         <v>105</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5527,10 +5631,10 @@
         <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5538,10 +5642,10 @@
         <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5549,10 +5653,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5563,7 +5667,7 @@
         <v>106</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -5574,7 +5678,7 @@
         <v>122</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="126" x14ac:dyDescent="0.45">
@@ -5585,7 +5689,7 @@
         <v>123</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5593,10 +5697,10 @@
         <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5604,10 +5708,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -5615,10 +5719,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -5626,10 +5730,10 @@
         <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5637,10 +5741,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5648,10 +5752,10 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5659,10 +5763,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5670,10 +5774,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5681,10 +5785,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5692,10 +5796,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5706,7 +5810,7 @@
         <v>111</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5714,10 +5818,10 @@
         <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5725,10 +5829,10 @@
         <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5736,10 +5840,10 @@
         <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5747,18 +5851,18 @@
         <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/k.xlsx
+++ b/漢字（かんじ）/k.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECA0EA2-F736-405F-9BAF-5DFE7D13C1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A453769-1EB8-4ADE-99A8-049AF2CBA583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="か" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="537">
   <si>
     <t>歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>極端｜きょくたん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>携</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -494,11 +490,6 @@
   </si>
   <si>
     <t>こん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高等｜こうとう
-高級｜こうき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -691,10 +682,6 @@
     <t>研究｜けんきゅう
 研究所｜けんきゅうしょ
 科研費｜かけん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>経験｜けいけん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1457,12 +1444,6 @@
     <t>検査｜けんさ
 化検｜かけん
 検討｜けんとう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公務員｜こうむいん
-主人公｜しゅじんこう
-公共｜こうきょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2045,10 +2026,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>器用｜きよう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2059,15 +2036,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天気｜てんき
-天気予報｜てんきよほう
-気圧｜きあつ
-気温｜きおん
-気障｜きざ
-生意気｜なまいき</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以下｜いか
 下等｜かとう</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2101,11 +2069,6 @@
     <t>歌会｜かかい
 歌曲｜かきょく
 応援歌｜おうえんか</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲｜かきょく
-応援曲｜おうえんきょく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2663,6 +2626,64 @@
   <si>
     <t>競技｜きょうぎ
 競技場｜きょうぎじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公務員｜こうむいん
+主人公｜しゅじんこう
+公共｜こうきょう
+公職｝こうしょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>経験｜けいけん
+体験｜たいけん
+体験版｜たいけんばん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲｜かきょく
+楽曲｜がっきょく
+応援曲｜おうえんきょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化粧｜けしょう
+化粧品｜けしょうひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等｜こうとう
+高級｜こうき
+高層｜こうそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天気｜てんき
+天気予報｜てんきよほう
+気圧｜きあつ
+気温｜きおん
+気障｜きざ
+気楽｜きらく
+蒸気｜じょうき
+生意気｜なまいき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食器｜しょっき
+楽器｜がっき
+器具｜きぐ
+器用｜きよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>極端｜きょくたん
+積極｜せっきょく
+消極｜しょうきょく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3085,22 +3106,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -3111,16 +3132,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -3131,13 +3152,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3148,16 +3169,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3165,19 +3186,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="70.8" x14ac:dyDescent="0.45">
@@ -3197,7 +3218,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3208,7 +3229,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -3217,7 +3238,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3237,7 +3258,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3254,10 +3275,10 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3268,16 +3289,16 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3294,10 +3315,10 @@
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3311,13 +3332,13 @@
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3328,7 +3349,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -3337,7 +3358,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3345,19 +3366,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3365,19 +3386,19 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3385,19 +3406,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3408,16 +3429,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3425,19 +3446,19 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3445,19 +3466,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -3465,19 +3486,19 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3485,19 +3506,19 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45.6" x14ac:dyDescent="0.45">
@@ -3505,39 +3526,39 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3545,19 +3566,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="162" x14ac:dyDescent="0.45">
@@ -3571,13 +3592,13 @@
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3588,16 +3609,16 @@
         <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3608,16 +3629,16 @@
         <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3631,13 +3652,13 @@
         <v>59</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3645,19 +3666,19 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -3668,28 +3689,28 @@
         <v>63</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G30" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C31" s="3"/>
       <c r="E31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3697,19 +3718,19 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -3717,19 +3738,19 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3737,19 +3758,19 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3757,19 +3778,19 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3777,19 +3798,19 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3797,16 +3818,16 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3814,19 +3835,19 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -3834,19 +3855,19 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3854,19 +3875,19 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -3874,16 +3895,16 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3891,19 +3912,19 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3911,19 +3932,19 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -3931,38 +3952,38 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E46" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3978,8 +3999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161A7524-DC47-4C3A-A5BA-55AE7C431FCB}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3993,22 +4014,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -4019,7 +4040,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>60</v>
@@ -4028,7 +4049,7 @@
         <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -4039,7 +4060,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>60</v>
@@ -4048,10 +4069,10 @@
         <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="108" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -4059,16 +4080,16 @@
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>431</v>
+        <v>534</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -4079,16 +4100,16 @@
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4096,19 +4117,19 @@
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -4116,19 +4137,19 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4136,10 +4157,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>69</v>
@@ -4156,10 +4177,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>69</v>
@@ -4168,18 +4189,18 @@
         <v>71</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>69</v>
@@ -4187,8 +4208,8 @@
       <c r="F10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>74</v>
+      <c r="G10" s="3" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -4196,19 +4217,19 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4216,16 +4237,16 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4233,19 +4254,19 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4253,10 +4274,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4264,10 +4285,10 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4275,10 +4296,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -4286,10 +4307,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4297,10 +4318,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4308,21 +4329,21 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>428</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4330,10 +4351,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -4341,54 +4362,54 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4396,10 +4417,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4407,10 +4428,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -4432,7 +4453,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -4451,10 +4472,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -4473,10 +4494,10 @@
         <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4484,10 +4505,10 @@
         <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4495,10 +4516,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -4506,10 +4527,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4517,139 +4538,139 @@
         <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="126" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -4675,13 +4696,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4692,7 +4713,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -4700,10 +4721,10 @@
         <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -4714,116 +4735,116 @@
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -4834,10 +4855,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256BA73C-D188-4336-B179-E3E92E107E20}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4848,42 +4869,42 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>531</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="73.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -4891,19 +4912,19 @@
         <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>157</v>
+        <v>504</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4911,19 +4932,19 @@
         <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.45">
@@ -4931,19 +4952,19 @@
         <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -4951,85 +4972,85 @@
         <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>490</v>
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="71.400000000000006" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>416</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>412</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5037,10 +5058,10 @@
         <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5048,175 +5069,186 @@
         <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>372</v>
+      <c r="B16" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>273</v>
+        <v>65</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>368</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>270</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>159</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="54" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="C25" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="32.4" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="32.4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>528</v>
+        <v>328</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -5229,8 +5261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A9C990-1BC4-48DB-B333-376637D02229}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5241,22 +5273,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5267,16 +5299,16 @@
         <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="64.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -5287,16 +5319,16 @@
         <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="88.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -5304,19 +5336,19 @@
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5327,16 +5359,16 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5347,7 +5379,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5361,10 +5393,10 @@
         <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5372,16 +5404,16 @@
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5389,10 +5421,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5403,7 +5435,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5411,10 +5443,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5422,10 +5454,10 @@
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.45">
@@ -5433,10 +5465,10 @@
         <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5444,10 +5476,10 @@
         <v>38</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5455,10 +5487,10 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5466,21 +5498,21 @@
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="144" x14ac:dyDescent="0.45">
@@ -5491,10 +5523,10 @@
         <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -5502,7 +5534,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>324</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -5510,13 +5542,13 @@
         <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -5524,7 +5556,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>113</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5535,7 +5567,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5543,10 +5575,10 @@
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5579,7 +5611,7 @@
         <v>68</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -5587,10 +5619,10 @@
         <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5598,10 +5630,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5609,10 +5641,10 @@
         <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5620,10 +5652,10 @@
         <v>44</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5631,10 +5663,10 @@
         <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5642,10 +5674,10 @@
         <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5653,10 +5685,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5664,10 +5696,10 @@
         <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -5675,10 +5707,10 @@
         <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="126" x14ac:dyDescent="0.45">
@@ -5686,10 +5718,10 @@
         <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5697,10 +5729,10 @@
         <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5708,10 +5740,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -5719,10 +5751,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -5730,10 +5762,10 @@
         <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5741,10 +5773,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5752,10 +5784,10 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5763,10 +5795,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5774,10 +5806,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5785,10 +5817,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5796,73 +5828,73 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/k.xlsx
+++ b/漢字（かんじ）/k.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A453769-1EB8-4ADE-99A8-049AF2CBA583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9174612E-AAC5-4321-8810-02EB3376AD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="か" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="541">
   <si>
     <t>歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2555,25 +2555,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>許可｜きょか
-許可証｜きょかしょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>共鳴｜きょうめい
 公共｜こうきょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正解｜せいかい
-誤解｜ごかい
-解除｜かいじょ
-分解｜ぶんかい
-了解｜りょうかい
-理解｜りかい
-誤解｜ごかい
-解釈｜かいしゃく
-解放｜かいほう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2684,6 +2667,41 @@
     <t>極端｜きょくたん
 積極｜せっきょく
 消極｜しょうきょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正解｜せいかい
+誤解｜ごかい
+解除｜かいじょ
+分解｜ぶんかい
+了解｜りょうかい
+理解｜りかい
+読解｜どっかい
+解釈｜かいしゃく
+解放｜かいほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴｜どうけつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許可｜きょか
+許可証｜きょかしょう
+免許｜めんきょ
+免許証｜めんきょしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文句｜もんく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3091,7 +3109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -3598,7 +3616,7 @@
         <v>91</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3999,8 +4017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161A7524-DC47-4C3A-A5BA-55AE7C431FCB}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4080,7 +4098,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>60</v>
@@ -4109,7 +4127,7 @@
         <v>256</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4189,7 +4207,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4209,7 +4227,7 @@
         <v>73</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -4343,7 +4361,7 @@
         <v>424</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4401,7 +4419,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>290</v>
       </c>
@@ -4409,7 +4427,7 @@
         <v>516</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4417,10 +4435,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4497,7 +4515,7 @@
         <v>152</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4615,7 +4633,7 @@
         <v>116</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4637,7 +4655,7 @@
         <v>169</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4648,7 +4666,7 @@
         <v>293</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -4681,10 +4699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A1AD37-6709-435E-986C-C21EBE71EF70}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4740,110 +4758,121 @@
     </row>
     <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>285</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>245</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>246</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>416</v>
       </c>
     </row>
@@ -4857,8 +4886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256BA73C-D188-4336-B179-E3E92E107E20}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4889,13 +4918,13 @@
     </row>
     <row r="2" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>159</v>
@@ -4997,6 +5026,15 @@
       <c r="C7" s="4" t="s">
         <v>483</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -5138,7 +5176,7 @@
         <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5245,10 +5283,10 @@
         <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -5534,7 +5572,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -5556,7 +5594,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.45">

--- a/漢字（かんじ）/k.xlsx
+++ b/漢字（かんじ）/k.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9174612E-AAC5-4321-8810-02EB3376AD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA57E4E-6D1B-4F9E-AAA5-0646062D8CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="か" sheetId="1" r:id="rId1"/>
@@ -4701,7 +4701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A1AD37-6709-435E-986C-C21EBE71EF70}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -4886,8 +4886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256BA73C-D188-4336-B179-E3E92E107E20}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/漢字（かんじ）/k.xlsx
+++ b/漢字（かんじ）/k.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA57E4E-6D1B-4F9E-AAA5-0646062D8CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B2BC4D-03B4-4CD5-AC1F-47ACFC989143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,32 +911,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>要件｜ようけん（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>紧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>急的事情）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>影</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1687,43 +1661,6 @@
   <si>
     <t>株式｜かぶしき
 株式会社｜かぶしきかいしゃ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">結果｜けっか
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>結論｜けつろん</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-結束｜けっそく
-結束力｜けっそくりょく</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2702,6 +2639,40 @@
   </si>
   <si>
     <t>句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要件｜ようけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">結果｜けっか
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>結論｜けつろん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+結束｜けっそく
+結束力｜けっそくりょく</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2802,12 +2773,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3124,22 +3092,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -3149,8 +3117,8 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>432</v>
+      <c r="C2" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>81</v>
@@ -3169,8 +3137,8 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>503</v>
+      <c r="C3" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>81</v>
@@ -3186,17 +3154,17 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>466</v>
+      <c r="C4" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3204,10 +3172,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -3215,8 +3183,8 @@
       <c r="F5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>404</v>
+      <c r="G5" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="70.8" x14ac:dyDescent="0.45">
@@ -3235,8 +3203,8 @@
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>497</v>
+      <c r="G6" s="2" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3246,8 +3214,8 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>458</v>
+      <c r="C7" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -3255,8 +3223,8 @@
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>421</v>
+      <c r="G7" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3275,8 +3243,8 @@
       <c r="F8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>240</v>
+      <c r="G8" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3286,17 +3254,17 @@
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3306,7 +3274,7 @@
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>203</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -3315,8 +3283,8 @@
       <c r="F10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>241</v>
+      <c r="G10" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3333,10 +3301,10 @@
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3346,17 +3314,17 @@
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>335</v>
+      <c r="G12" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3366,8 +3334,8 @@
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>459</v>
+      <c r="C13" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -3375,8 +3343,8 @@
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>427</v>
+      <c r="G13" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3386,17 +3354,17 @@
       <c r="B14" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>426</v>
+      <c r="C14" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>489</v>
+        <v>467</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3404,10 +3372,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>455</v>
+        <v>303</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>85</v>
@@ -3415,8 +3383,8 @@
       <c r="F15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>473</v>
+      <c r="G15" s="2" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3426,17 +3394,17 @@
       <c r="B16" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>327</v>
+        <v>231</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3446,8 +3414,8 @@
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>214</v>
+      <c r="C17" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>85</v>
@@ -3464,10 +3432,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>269</v>
+        <v>217</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>85</v>
@@ -3475,8 +3443,8 @@
       <c r="F18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>438</v>
+      <c r="G18" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3484,10 +3452,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>298</v>
+        <v>235</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>85</v>
@@ -3504,10 +3472,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -3516,7 +3484,7 @@
         <v>117</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3524,10 +3492,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>85</v>
@@ -3544,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>447</v>
+        <v>444</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>445</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>85</v>
@@ -3561,13 +3529,13 @@
     </row>
     <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>515</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>85</v>
@@ -3584,19 +3552,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>454</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>428</v>
+        <v>364</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="162" x14ac:dyDescent="0.45">
@@ -3615,8 +3583,8 @@
       <c r="F25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>535</v>
+      <c r="G25" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3626,17 +3594,17 @@
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>310</v>
+      <c r="C26" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3646,17 +3614,17 @@
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>279</v>
+      <c r="C27" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3673,10 +3641,10 @@
         <v>85</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3686,17 +3654,17 @@
       <c r="B29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>502</v>
+      <c r="C29" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -3706,8 +3674,8 @@
       <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>278</v>
+      <c r="C30" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>93</v>
@@ -3715,20 +3683,20 @@
       <c r="F30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>406</v>
+      <c r="G30" s="2" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C31" s="3"/>
+      <c r="C31" s="2"/>
       <c r="E31" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3738,7 +3706,7 @@
       <c r="B32" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3747,7 +3715,7 @@
       <c r="F32" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3758,17 +3726,17 @@
       <c r="B33" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3778,17 +3746,17 @@
       <c r="B34" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3798,17 +3766,17 @@
       <c r="B35" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>437</v>
+      <c r="C35" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3816,19 +3784,19 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="E36" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3836,16 +3804,16 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>407</v>
+        <v>276</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3853,19 +3821,19 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>470</v>
+        <v>279</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>333</v>
+      <c r="G38" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -3873,19 +3841,19 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3893,19 +3861,19 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>413</v>
+        <v>306</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>349</v>
+        <v>302</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -3913,16 +3881,16 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="E41" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3930,19 +3898,19 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="E42" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3950,19 +3918,19 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>373</v>
+      <c r="G43" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -3970,38 +3938,38 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E46" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -4017,8 +3985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161A7524-DC47-4C3A-A5BA-55AE7C431FCB}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4032,22 +4000,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -4057,8 +4025,8 @@
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>400</v>
+      <c r="C2" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>60</v>
@@ -4066,8 +4034,8 @@
       <c r="F2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>355</v>
+      <c r="G2" s="2" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -4077,8 +4045,8 @@
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>345</v>
+      <c r="C3" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>60</v>
@@ -4086,8 +4054,8 @@
       <c r="F3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>292</v>
+      <c r="G3" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -4097,17 +4065,17 @@
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>532</v>
+      <c r="C4" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>392</v>
+        <v>227</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -4117,17 +4085,17 @@
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>480</v>
+      <c r="C5" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>520</v>
+        <v>255</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4137,17 +4105,17 @@
       <c r="B6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -4157,7 +4125,7 @@
       <c r="B7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4177,8 +4145,8 @@
       <c r="B8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>356</v>
+      <c r="C8" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>69</v>
@@ -4197,8 +4165,8 @@
       <c r="B9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>258</v>
+      <c r="C9" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>69</v>
@@ -4206,8 +4174,8 @@
       <c r="F9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>528</v>
+      <c r="G9" s="2" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4217,7 +4185,7 @@
       <c r="B10" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>205</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4226,8 +4194,8 @@
       <c r="F10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>534</v>
+      <c r="G10" s="2" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -4237,8 +4205,8 @@
       <c r="B11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>336</v>
+      <c r="C11" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>189</v>
@@ -4255,16 +4223,16 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>434</v>
+        <v>307</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4272,19 +4240,19 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4292,10 +4260,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4303,10 +4271,10 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>474</v>
+        <v>308</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4316,7 +4284,7 @@
       <c r="B16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4325,10 +4293,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C17" s="3" t="s">
         <v>251</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4336,10 +4304,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4347,10 +4315,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>417</v>
+        <v>336</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4358,10 +4326,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>533</v>
+        <v>422</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4369,10 +4337,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -4380,54 +4348,54 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C23" s="3" t="s">
         <v>321</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>538</v>
+        <v>514</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4435,10 +4403,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4446,10 +4414,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>255</v>
+        <v>218</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -4470,7 +4438,7 @@
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4492,8 +4460,8 @@
       <c r="B32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>357</v>
+      <c r="C32" s="2" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -4514,8 +4482,8 @@
       <c r="B34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>517</v>
+      <c r="C34" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4525,8 +4493,8 @@
       <c r="B35" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>477</v>
+      <c r="C35" s="2" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4534,10 +4502,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>472</v>
+        <v>274</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -4545,10 +4513,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4556,10 +4524,10 @@
         <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>425</v>
+        <v>396</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4567,10 +4535,10 @@
         <v>112</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4580,8 +4548,8 @@
       <c r="B41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>449</v>
+      <c r="C41" s="2" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -4600,7 +4568,7 @@
         <v>115</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4608,10 +4576,10 @@
         <v>112</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -4621,8 +4589,8 @@
       <c r="B45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>512</v>
+      <c r="C45" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="126" x14ac:dyDescent="0.45">
@@ -4632,8 +4600,8 @@
       <c r="B46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>522</v>
+      <c r="C46" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4643,8 +4611,8 @@
       <c r="B47" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>338</v>
+      <c r="C47" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4654,8 +4622,8 @@
       <c r="B48" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>521</v>
+      <c r="C48" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4663,10 +4631,10 @@
         <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>523</v>
+        <v>292</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -4674,10 +4642,10 @@
         <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -4685,10 +4653,10 @@
         <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -4701,8 +4669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A1AD37-6709-435E-986C-C21EBE71EF70}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4714,13 +4682,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4730,8 +4698,8 @@
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>454</v>
+      <c r="C2" s="2" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -4739,10 +4707,10 @@
         <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>495</v>
+        <v>281</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -4752,8 +4720,8 @@
       <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>366</v>
+      <c r="C4" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -4761,32 +4729,32 @@
         <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>471</v>
+        <v>223</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4794,10 +4762,10 @@
         <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -4818,62 +4786,62 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -4886,8 +4854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256BA73C-D188-4336-B179-E3E92E107E20}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4898,33 +4866,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>530</v>
+      <c r="C2" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>159</v>
@@ -4933,7 +4901,7 @@
         <v>158</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>374</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="73.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -4943,17 +4911,17 @@
       <c r="B3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>504</v>
+      <c r="C3" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4963,20 +4931,20 @@
       <c r="B4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -4990,10 +4958,10 @@
         <v>159</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5010,10 +4978,10 @@
         <v>159</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>501</v>
+        <v>347</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="71.400000000000006" x14ac:dyDescent="0.45">
@@ -5023,17 +4991,17 @@
       <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>483</v>
+      <c r="C7" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5043,8 +5011,8 @@
       <c r="B8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>367</v>
+      <c r="C8" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5052,10 +5020,10 @@
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5065,8 +5033,8 @@
       <c r="B10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>213</v>
+      <c r="C10" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -5074,10 +5042,10 @@
         <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>409</v>
+        <v>340</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -5087,8 +5055,8 @@
       <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>276</v>
+      <c r="C12" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5129,21 +5097,21 @@
         <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5151,10 +5119,10 @@
         <v>95</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5175,8 +5143,8 @@
       <c r="B20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>527</v>
+      <c r="C20" s="2" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5186,7 +5154,7 @@
       <c r="B21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5197,8 +5165,8 @@
       <c r="B22" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>511</v>
+      <c r="C22" s="2" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -5208,7 +5176,7 @@
       <c r="B23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5219,8 +5187,8 @@
       <c r="B24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>209</v>
+      <c r="C24" s="2" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5230,8 +5198,8 @@
       <c r="B25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>320</v>
+      <c r="C25" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5249,11 +5217,11 @@
       <c r="A27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>496</v>
+      <c r="B27" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5261,10 +5229,10 @@
         <v>95</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="32.4" x14ac:dyDescent="0.45">
@@ -5272,10 +5240,10 @@
         <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>380</v>
+        <v>327</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5283,10 +5251,10 @@
         <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -5311,22 +5279,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5336,8 +5304,8 @@
       <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>439</v>
+      <c r="C2" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>175</v>
@@ -5356,8 +5324,8 @@
       <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>397</v>
+      <c r="C3" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>176</v>
@@ -5365,7 +5333,7 @@
       <c r="F3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5374,10 +5342,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>176</v>
@@ -5385,8 +5353,8 @@
       <c r="F4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>420</v>
+      <c r="G4" s="2" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5403,10 +5371,10 @@
         <v>176</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>360</v>
+        <v>256</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5416,8 +5384,8 @@
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>498</v>
+      <c r="C6" s="2" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5431,10 +5399,10 @@
         <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5444,14 +5412,14 @@
       <c r="B8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5461,8 +5429,8 @@
       <c r="B9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>429</v>
+      <c r="C9" s="2" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5472,8 +5440,8 @@
       <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>217</v>
+      <c r="C10" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5481,10 +5449,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5502,22 +5470,22 @@
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>306</v>
+      <c r="B13" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>394</v>
+      <c r="B14" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5525,10 +5493,10 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5536,10 +5504,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5549,7 +5517,7 @@
       <c r="B17" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5560,8 +5528,8 @@
       <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>462</v>
+      <c r="C18" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -5571,8 +5539,8 @@
       <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>526</v>
+      <c r="C19" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -5582,8 +5550,8 @@
       <c r="B20" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>294</v>
+      <c r="C20" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5593,8 +5561,8 @@
       <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>531</v>
+      <c r="C21" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5604,8 +5572,8 @@
       <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>486</v>
+      <c r="C22" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5615,7 +5583,7 @@
       <c r="B23" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5648,7 +5616,7 @@
       <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5659,8 +5627,8 @@
       <c r="B27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>448</v>
+      <c r="C27" s="2" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5670,7 +5638,7 @@
       <c r="B28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5681,8 +5649,8 @@
       <c r="B29" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>237</v>
+      <c r="C29" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5692,8 +5660,8 @@
       <c r="B30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>433</v>
+      <c r="C30" s="2" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5701,10 +5669,10 @@
         <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>445</v>
+        <v>315</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5714,8 +5682,8 @@
       <c r="B32" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>317</v>
+      <c r="C32" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5736,8 +5704,8 @@
       <c r="B34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>408</v>
+      <c r="C34" s="2" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -5747,7 +5715,7 @@
       <c r="B35" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5758,19 +5726,19 @@
       <c r="B36" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>490</v>
+      <c r="C36" s="2" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5780,7 +5748,7 @@
       <c r="B38" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5791,8 +5759,8 @@
       <c r="B39" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>281</v>
+      <c r="C39" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -5802,8 +5770,8 @@
       <c r="B40" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>295</v>
+      <c r="C40" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5811,10 +5779,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5822,21 +5790,21 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5844,10 +5812,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5855,10 +5823,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5866,10 +5834,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5879,8 +5847,8 @@
       <c r="B47" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>391</v>
+      <c r="C47" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5888,10 +5856,10 @@
         <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5899,10 +5867,10 @@
         <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5910,10 +5878,10 @@
         <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5921,18 +5889,18 @@
         <v>111</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/k.xlsx
+++ b/漢字（かんじ）/k.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B2BC4D-03B4-4CD5-AC1F-47ACFC989143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5EFD48-03E0-4564-AAD1-C1BA6130C550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="か" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="545">
   <si>
     <t>歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,10 +830,6 @@
   </si>
   <si>
     <t>快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全快｜ぜんかい（治療｜ちりょうー＞治癒｜ちゆ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2296,11 +2292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陽光｜ようこう
-太陽光｜たいようこう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>固形｜こけい
 形式｜けいしき
 形容｜けいよう
@@ -2673,6 +2664,33 @@
 結束｜けっそく
 結束力｜けっそくりょく</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慣例｜かんれい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冷｜かんれい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全快｜ぜんかい
+快楽｜かいらく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽光｜ようこう
+太陽光｜たいようこう
+光栄｜こうえい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3077,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3092,22 +3110,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -3118,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>81</v>
@@ -3138,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>81</v>
@@ -3155,16 +3173,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3172,10 +3190,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -3184,7 +3202,7 @@
         <v>161</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="70.8" x14ac:dyDescent="0.45">
@@ -3204,7 +3222,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3215,7 +3233,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -3224,7 +3242,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3244,7 +3262,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3261,10 +3279,10 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3275,7 +3293,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -3284,7 +3302,7 @@
         <v>138</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3301,10 +3319,10 @@
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3318,13 +3336,13 @@
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3335,7 +3353,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -3344,7 +3362,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3355,16 +3373,16 @@
         <v>148</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3372,10 +3390,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>85</v>
@@ -3384,7 +3402,7 @@
         <v>86</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3401,10 +3419,10 @@
         <v>85</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3415,7 +3433,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>85</v>
@@ -3432,10 +3450,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>85</v>
@@ -3444,7 +3462,7 @@
         <v>88</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3452,10 +3470,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>85</v>
@@ -3472,10 +3490,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -3484,7 +3502,7 @@
         <v>117</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3492,10 +3510,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>85</v>
@@ -3512,10 +3530,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>444</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>445</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>85</v>
@@ -3527,15 +3545,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>511</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>513</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>85</v>
@@ -3543,8 +3561,8 @@
       <c r="F23" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>193</v>
+      <c r="G23" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3552,19 +3570,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="162" x14ac:dyDescent="0.45">
@@ -3584,7 +3602,7 @@
         <v>91</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3595,16 +3613,16 @@
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3615,16 +3633,16 @@
         <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3641,10 +3659,10 @@
         <v>85</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3655,16 +3673,16 @@
         <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -3675,7 +3693,7 @@
         <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>93</v>
@@ -3684,19 +3702,27 @@
         <v>94</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C31" s="2"/>
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>542</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3724,19 +3750,19 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3744,19 +3770,19 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="E34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3764,19 +3790,19 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3784,19 +3810,19 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="E36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3804,16 +3830,16 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3821,19 +3847,19 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -3841,19 +3867,19 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3861,19 +3887,19 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -3881,16 +3907,16 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="E41" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3898,19 +3924,19 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="E42" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3918,19 +3944,19 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="E43" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -3938,38 +3964,47 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E45" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E46" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -4000,22 +4035,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -4026,7 +4061,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>60</v>
@@ -4035,7 +4070,7 @@
         <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -4046,7 +4081,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>60</v>
@@ -4055,7 +4090,7 @@
         <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -4066,16 +4101,16 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -4086,16 +4121,16 @@
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4112,10 +4147,10 @@
         <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -4146,7 +4181,7 @@
         <v>160</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>69</v>
@@ -4166,7 +4201,7 @@
         <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>69</v>
@@ -4175,7 +4210,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4183,10 +4218,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>69</v>
@@ -4195,7 +4230,7 @@
         <v>73</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -4203,10 +4238,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>189</v>
@@ -4223,16 +4258,16 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4240,19 +4275,19 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4260,10 +4295,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4271,10 +4306,10 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4282,10 +4317,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -4293,10 +4328,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4304,10 +4339,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4315,10 +4350,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4326,10 +4361,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4337,10 +4372,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -4348,54 +4383,54 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4403,10 +4438,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4414,10 +4449,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -4461,7 +4496,7 @@
         <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -4483,7 +4518,7 @@
         <v>152</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4494,7 +4529,7 @@
         <v>168</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4502,10 +4537,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -4513,10 +4548,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4524,10 +4559,10 @@
         <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4535,10 +4570,10 @@
         <v>112</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4549,7 +4584,7 @@
         <v>113</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -4568,7 +4603,7 @@
         <v>115</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4576,10 +4611,10 @@
         <v>112</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -4590,7 +4625,7 @@
         <v>113</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="126" x14ac:dyDescent="0.45">
@@ -4601,7 +4636,7 @@
         <v>116</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4612,7 +4647,7 @@
         <v>137</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4623,7 +4658,7 @@
         <v>169</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4631,10 +4666,10 @@
         <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -4642,10 +4677,10 @@
         <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -4653,10 +4688,10 @@
         <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -4682,13 +4717,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4699,7 +4734,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -4707,10 +4742,10 @@
         <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -4721,7 +4756,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -4729,32 +4764,32 @@
         <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4762,10 +4797,10 @@
         <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -4786,62 +4821,62 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -4854,7 +4889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256BA73C-D188-4336-B179-E3E92E107E20}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4866,33 +4901,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>159</v>
@@ -4901,7 +4936,7 @@
         <v>158</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="73.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -4912,16 +4947,16 @@
         <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4938,10 +4973,10 @@
         <v>159</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4958,10 +4993,10 @@
         <v>159</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -4978,10 +5013,10 @@
         <v>159</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="71.400000000000006" x14ac:dyDescent="0.45">
@@ -4992,16 +5027,16 @@
         <v>76</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5012,7 +5047,7 @@
         <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5020,10 +5055,10 @@
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5034,7 +5069,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -5042,10 +5077,10 @@
         <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -5056,7 +5091,7 @@
         <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5097,10 +5132,10 @@
         <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5108,10 +5143,10 @@
         <v>65</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5119,10 +5154,10 @@
         <v>95</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5144,7 +5179,7 @@
         <v>156</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5166,7 +5201,7 @@
         <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -5188,7 +5223,7 @@
         <v>108</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5199,7 +5234,7 @@
         <v>109</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5218,10 +5253,10 @@
         <v>95</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5229,10 +5264,10 @@
         <v>95</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="32.4" x14ac:dyDescent="0.45">
@@ -5240,10 +5275,10 @@
         <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5251,10 +5286,10 @@
         <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -5267,8 +5302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A9C990-1BC4-48DB-B333-376637D02229}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5279,22 +5314,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5305,7 +5340,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>175</v>
@@ -5325,7 +5360,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>176</v>
@@ -5342,10 +5377,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>176</v>
@@ -5354,7 +5389,7 @@
         <v>179</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5371,10 +5406,10 @@
         <v>176</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5385,7 +5420,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5399,10 +5434,10 @@
         <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5416,10 +5451,10 @@
         <v>129</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5430,7 +5465,7 @@
         <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5441,7 +5476,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5449,10 +5484,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5460,10 +5495,10 @@
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.45">
@@ -5471,10 +5506,10 @@
         <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5482,10 +5517,10 @@
         <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5493,10 +5528,10 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5504,10 +5539,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5529,7 +5564,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -5540,7 +5575,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -5551,7 +5586,7 @@
         <v>173</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5562,7 +5597,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5573,7 +5608,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5628,7 +5663,7 @@
         <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5650,7 +5685,7 @@
         <v>147</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5661,7 +5696,7 @@
         <v>104</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5669,10 +5704,10 @@
         <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5683,7 +5718,7 @@
         <v>173</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5705,7 +5740,7 @@
         <v>105</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -5727,7 +5762,7 @@
         <v>121</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5735,10 +5770,10 @@
         <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5757,10 +5792,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -5768,10 +5803,10 @@
         <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5779,10 +5814,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5790,10 +5825,10 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5801,10 +5836,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5812,10 +5847,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5823,21 +5858,21 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5848,7 +5883,7 @@
         <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5856,10 +5891,10 @@
         <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5867,10 +5902,10 @@
         <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5878,10 +5913,10 @@
         <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5889,18 +5924,18 @@
         <v>111</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/k.xlsx
+++ b/漢字（かんじ）/k.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5EFD48-03E0-4564-AAD1-C1BA6130C550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E66FBD-6366-44A5-9AE1-F1C734D46D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="か" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="547">
   <si>
     <t>歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2117,14 +2117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超過｜ちょうか
-過去｜かこ
-過程｜かてい
-過剰｜かじょう
-過剰摂取｜かじょうせっしゅ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2247,11 +2239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>喚起｜かんき
-起点｜きてん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>婚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2585,13 +2572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食器｜しょっき
-楽器｜がっき
-器具｜きぐ
-器用｜きよう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>極端｜きょくたん
 積極｜せっきょく
 消極｜しょうきょく</t>
@@ -2630,10 +2610,6 @@
   </si>
   <si>
     <t>句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要件｜ようけん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2691,6 +2667,42 @@
     <t>陽光｜ようこう
 太陽光｜たいようこう
 光栄｜こうえい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緩和｜かんわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要件｜ようけん\
+条件｜じょうけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喚起｜かんき
+起点｜きてん
+起動｜きどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食器｜しょっき
+楽器｜がっき
+器具｜きぐ
+器用｜きよう
+兵器｜へいき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超過｜ちょうか
+過去｜かこ
+過程｜かてい
+過剰｜かじょう
+過剰摂取｜かじょうせっしゅ
+過労｜かろう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3095,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3156,7 +3168,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>81</v>
@@ -3173,7 +3185,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>375</v>
@@ -3190,10 +3202,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -3222,7 +3234,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3233,7 +3245,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -3353,7 +3365,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -3379,10 +3391,10 @@
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3393,7 +3405,7 @@
         <v>302</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>85</v>
@@ -3402,7 +3414,7 @@
         <v>86</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3547,13 +3559,13 @@
     </row>
     <row r="23" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>509</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>85</v>
@@ -3562,7 +3574,7 @@
         <v>192</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3570,10 +3582,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>85</v>
@@ -3602,7 +3614,7 @@
         <v>91</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3673,16 +3685,16 @@
         <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -3710,19 +3722,19 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3850,7 +3862,7 @@
         <v>278</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>297</v>
@@ -3964,10 +3976,10 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>209</v>
@@ -3984,10 +3996,10 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>209</v>
@@ -4000,6 +4012,15 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="E46" s="1" t="s">
         <v>400</v>
       </c>
@@ -4020,8 +4041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161A7524-DC47-4C3A-A5BA-55AE7C431FCB}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4101,7 +4122,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>60</v>
@@ -4121,7 +4142,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>60</v>
@@ -4130,7 +4151,7 @@
         <v>254</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4210,7 +4231,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -4230,7 +4251,7 @@
         <v>73</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -4281,13 +4302,13 @@
         <v>433</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4301,7 +4322,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -4309,7 +4330,7 @@
         <v>307</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>471</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4356,7 +4377,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -4364,7 +4385,7 @@
         <v>421</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4383,10 +4404,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -4427,10 +4448,10 @@
         <v>288</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4438,10 +4459,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4518,7 +4539,7 @@
         <v>152</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4529,7 +4550,7 @@
         <v>168</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4540,7 +4561,7 @@
         <v>273</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -4625,7 +4646,7 @@
         <v>113</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="126" x14ac:dyDescent="0.45">
@@ -4636,7 +4657,7 @@
         <v>116</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4658,7 +4679,7 @@
         <v>169</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4669,7 +4690,7 @@
         <v>291</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -4745,7 +4766,7 @@
         <v>280</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -4764,10 +4785,10 @@
         <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -4789,7 +4810,7 @@
         <v>222</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4837,13 +4858,13 @@
     </row>
     <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -4889,8 +4910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256BA73C-D188-4336-B179-E3E92E107E20}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4921,13 +4942,13 @@
     </row>
     <row r="2" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>159</v>
@@ -4936,7 +4957,7 @@
         <v>158</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="73.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -4947,7 +4968,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>159</v>
@@ -5016,7 +5037,7 @@
         <v>346</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="71.400000000000006" x14ac:dyDescent="0.45">
@@ -5027,16 +5048,16 @@
         <v>76</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5179,7 +5200,7 @@
         <v>156</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5201,7 +5222,7 @@
         <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -5215,7 +5236,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>95</v>
       </c>
@@ -5223,7 +5244,7 @@
         <v>108</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5256,7 +5277,7 @@
         <v>242</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5286,10 +5307,10 @@
         <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5302,8 +5323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A9C990-1BC4-48DB-B333-376637D02229}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5377,10 +5398,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>176</v>
@@ -5420,7 +5441,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5564,7 +5585,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -5575,7 +5596,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -5597,7 +5618,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5608,7 +5629,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5762,7 +5783,7 @@
         <v>121</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5858,10 +5879,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5869,10 +5890,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5913,10 +5934,10 @@
         <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5924,18 +5945,18 @@
         <v>111</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/k.xlsx
+++ b/漢字（かんじ）/k.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E66FBD-6366-44A5-9AE1-F1C734D46D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE6453-41B1-4F71-8AFB-026B953FD345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="か" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="551">
   <si>
     <t>歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2664,12 +2664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陽光｜ようこう
-太陽光｜たいようこう
-光栄｜こうえい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>緩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2703,6 +2697,30 @@
 過剰｜かじょう
 過剰摂取｜かじょうせっしゅ
 過労｜かろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽光｜ようこう
+蛍光｜けいこう
+蛍光灯｜けいこうとう
+太陽光｜たいようこう
+光栄｜こうえい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古典｜こてん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桁数｜けたすう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3107,7 +3125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3405,7 +3423,7 @@
         <v>302</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>85</v>
@@ -4016,10 +4034,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>400</v>
@@ -4330,7 +4348,7 @@
         <v>307</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4385,7 +4403,7 @@
         <v>421</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4908,10 +4926,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256BA73C-D188-4336-B179-E3E92E107E20}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4962,13 +4980,13 @@
     </row>
     <row r="3" spans="1:7" ht="73.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>523</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>550</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>498</v>
+        <v>549</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>159</v>
@@ -4980,15 +4998,15 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>155</v>
+        <v>498</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>159</v>
@@ -5005,10 +5023,10 @@
         <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>159</v>
@@ -5025,10 +5043,10 @@
         <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>159</v>
@@ -5040,15 +5058,15 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="71.400000000000006" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>477</v>
+        <v>74</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>159</v>
@@ -5060,70 +5078,70 @@
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="71.400000000000006" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>409</v>
+        <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5131,10 +5149,10 @@
         <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -5142,54 +5160,54 @@
         <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>97</v>
+        <v>268</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5197,21 +5215,21 @@
         <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -5219,10 +5237,10 @@
         <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>505</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -5230,86 +5248,97 @@
         <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="32.4" x14ac:dyDescent="0.45">
+      <c r="B28" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>323</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="32.4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>513</v>
       </c>
     </row>
@@ -5321,10 +5350,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A9C990-1BC4-48DB-B333-376637D02229}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5433,26 +5462,26 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>547</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>227</v>
@@ -5466,10 +5495,10 @@
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>129</v>
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>227</v>
@@ -5483,10 +5512,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>426</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5494,10 +5523,10 @@
         <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>215</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5505,10 +5534,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5516,21 +5545,21 @@
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>194</v>
+        <v>294</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>304</v>
+      <c r="B13" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>303</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5538,21 +5567,21 @@
         <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>391</v>
+        <v>304</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>352</v>
+      <c r="B15" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -5560,43 +5589,43 @@
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="144" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="144" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>520</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -5604,10 +5633,10 @@
         <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>292</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5615,10 +5644,10 @@
         <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>525</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5626,32 +5655,32 @@
         <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
+        <v>170</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5659,76 +5688,76 @@
         <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>314</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5736,76 +5765,76 @@
         <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>173</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="126" x14ac:dyDescent="0.45">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="126" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A37" s="7" t="s">
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -5813,10 +5842,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -5824,10 +5853,10 @@
         <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5835,10 +5864,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5846,32 +5875,32 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="7" t="s">
+    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5879,43 +5908,43 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="90" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="54" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>327</v>
+        <v>110</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -5923,39 +5952,50 @@
         <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>478</v>
       </c>
     </row>
